--- a/7RMartSupermarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSupermarketProject/src/test/resources/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sona\eclipse-workspace\7RMartSupermarketProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sona\git\7RMartSupermarketProject\7RMartSupermarketProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1277EE6-9645-48D1-927B-90C737049882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F7039-934A-4DF9-9FB0-614F36C62FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="CategoryName" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -37,6 +38,9 @@
   </si>
   <si>
     <t>admin8</t>
+  </si>
+  <si>
+    <t>Toys</t>
   </si>
 </sst>
 </file>
@@ -356,7 +360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -397,4 +401,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D7CD26-019D-4D5D-80D6-6CFFDAEA8B0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RMartSupermarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSupermarketProject/src/test/resources/TestData.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sona\git\7RMartSupermarketProject\7RMartSupermarketProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F7039-934A-4DF9-9FB0-614F36C62FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F3393D-477D-4333-B4F1-065B98A0111E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="CategoryName" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>admin</t>
   </si>
@@ -38,9 +37,6 @@
   </si>
   <si>
     <t>admin8</t>
-  </si>
-  <si>
-    <t>Toys</t>
   </si>
 </sst>
 </file>
@@ -360,7 +356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -401,22 +397,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D7CD26-019D-4D5D-80D6-6CFFDAEA8B0F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>